--- a/output/altas_cli_mes_3.xlsx
+++ b/output/altas_cli_mes_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>canal_venta</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1127,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1415,110 +1415,54 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
-      </c>
-      <c r="O19">
-        <v>8</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19">
         <v>3</v>
       </c>
     </row>
